--- a/cleaned/dsp_mutual_fund_portfolio.xlsx
+++ b/cleaned/dsp_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,16 +511,12 @@
           <t>INE774D07VB7</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>13000</t>
@@ -521,17 +532,22 @@
           <t>0.0062</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0.07959999889135361</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -548,16 +564,12 @@
           <t>INE134E08GY3</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.1052</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>600</t>
@@ -573,17 +585,22 @@
           <t>0.0029</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0.07105199992656708</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -600,16 +617,12 @@
           <t>INE115A07PM8</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>250</t>
@@ -625,17 +638,22 @@
           <t>0.0013</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0.07619999349117279</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -652,16 +670,12 @@
           <t>INE134E08KP3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>250</t>
@@ -677,17 +691,22 @@
           <t>0.0012</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.07619999349117279</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -704,16 +723,12 @@
           <t>IN2120220115</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.3693</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>78500000</t>
@@ -729,17 +744,22 @@
           <t>0.0363</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState         Cash  Equivalent 00402</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.06369299441576004</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 Cash &amp; Equivalent 00402</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -756,16 +776,12 @@
           <t>IN3720140042</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.3939</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>25000000</t>
@@ -781,17 +797,22 @@
           <t>0.0116</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState         Cash  Equivalent 00402</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.06393899768590927</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 Cash &amp; Equivalent 00402</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -808,16 +829,12 @@
           <t>IN1520200321</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.384</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>17400000</t>
@@ -833,17 +850,22 @@
           <t>0.008</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState         Cash  Equivalent 00402</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.06383999437093735</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 Cash &amp; Equivalent 00402</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -860,16 +882,12 @@
           <t>IN1520220261</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.3785</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>15500000</t>
@@ -885,17 +903,22 @@
           <t>0.0072</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState         Cash  Equivalent 00402</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.06378500163555145</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 Cash &amp; Equivalent 00402</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -912,16 +935,12 @@
           <t>IN2220150014</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.4987</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>14000000</t>
@@ -937,17 +956,22 @@
           <t>0.0064</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState         Cash  Equivalent 00402</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.06498699635267258</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 Cash &amp; Equivalent 00402</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -964,16 +988,12 @@
           <t>IN2120140115</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.3844</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>2500000</t>
@@ -989,17 +1009,22 @@
           <t>0.0012</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState         Cash  Equivalent 00402</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.0638439953327179</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 Cash &amp; Equivalent 00402</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1016,14 +1041,10 @@
           <t>INE562A16MR8</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.934</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1041,17 +1062,22 @@
           <t>0.0267</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.06933999806642532</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1068,14 +1094,10 @@
           <t>INE160A16PE2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.5296</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1093,17 +1115,22 @@
           <t>0.0233</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.07529599964618683</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1120,14 +1147,10 @@
           <t>INE238AD6AI0</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.5202</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1145,17 +1168,22 @@
           <t>0.0221</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.07520199567079544</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1172,16 +1200,12 @@
           <t>INE028A16HR0</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.4803</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>10000</t>
@@ -1197,17 +1221,22 @@
           <t>0.022</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.07480299472808838</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1224,14 +1253,10 @@
           <t>INE040A16GK2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.5001</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1249,17 +1274,22 @@
           <t>0.0219</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.07500100135803223</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1276,14 +1306,10 @@
           <t>INE160A16QZ5</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.5198</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1301,17 +1327,22 @@
           <t>0.0176</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.07519800215959549</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1328,14 +1359,10 @@
           <t>INE160A16RE8</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.5201</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1353,17 +1380,22 @@
           <t>0.0176</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.07520099729299545</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1380,16 +1412,12 @@
           <t>INE692A16IW1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.4951</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>7000</t>
@@ -1405,17 +1433,22 @@
           <t>0.0154</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.07495100051164627</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1432,14 +1465,10 @@
           <t>INE160A16OP1</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.9262</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1457,17 +1486,22 @@
           <t>0.0145</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.06926199793815613</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1484,14 +1518,10 @@
           <t>INE562A16NY2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7.4997</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1509,17 +1539,22 @@
           <t>0.0132</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.07499700039625168</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1536,14 +1571,10 @@
           <t>INE238AD6975</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1561,17 +1592,22 @@
           <t>0.0121</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.07509999722242355</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1588,14 +1624,10 @@
           <t>INE562A16NP0</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.8794</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1613,17 +1645,22 @@
           <t>0.0112</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.06879399716854095</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1640,16 +1677,12 @@
           <t>INE028A16GP6</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>5000</t>
@@ -1665,17 +1698,22 @@
           <t>0.011</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.07479999959468842</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1692,16 +1730,12 @@
           <t>INE692A16IQ3</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.4951</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>5000</t>
@@ -1717,17 +1751,22 @@
           <t>0.011</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.07495100051164627</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1744,16 +1783,12 @@
           <t>INE028A16HM1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.4904</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>4000</t>
@@ -1769,17 +1804,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.07490399479866028</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1796,16 +1836,12 @@
           <t>INE692A16IS9</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.4949</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>4000</t>
@@ -1821,17 +1857,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.0749490037560463</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1848,14 +1889,10 @@
           <t>INE171A16MD8</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.575</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1873,17 +1910,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.07574999332427979</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1900,16 +1942,12 @@
           <t>INE692A16IT7</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.4951</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>4000</t>
@@ -1925,17 +1963,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.07495100051164627</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -1952,14 +1995,10 @@
           <t>INE562A16OE2</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.4999</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1977,17 +2016,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.07499899715185165</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2004,16 +2048,12 @@
           <t>INE090AD6220</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>7.4555</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>3500</t>
@@ -2029,17 +2069,22 @@
           <t>0.0077</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.07455500215291977</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2056,14 +2101,10 @@
           <t>INE084A16CW4</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6.9812</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2081,17 +2122,22 @@
           <t>0.0067</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.06981199979782104</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2108,16 +2154,12 @@
           <t>INE028A16HO7</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>7.4898</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>3000</t>
@@ -2133,17 +2175,22 @@
           <t>0.0066</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.07489799708127975</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2160,14 +2207,10 @@
           <t>INE171A16MG1</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7.5752</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2185,17 +2228,22 @@
           <t>0.0066</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.07575199753046036</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2212,14 +2260,10 @@
           <t>INE160A16PF9</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2237,17 +2281,22 @@
           <t>0.0062</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.07519999891519547</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2264,16 +2313,12 @@
           <t>INE028A16GR2</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7.4799</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>2500</t>
@@ -2289,17 +2334,22 @@
           <t>0.0055</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.07479899376630783</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2316,16 +2366,12 @@
           <t>INE090AD6147</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.9516</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>2000</t>
@@ -2341,17 +2387,22 @@
           <t>0.0045</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.06951599568128586</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2368,14 +2419,10 @@
           <t>INE476A16YB0</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6.9456</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2393,17 +2440,22 @@
           <t>0.0045</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.06945599615573883</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2420,14 +2472,10 @@
           <t>INE160A16QQ4</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6.9404</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2445,17 +2493,22 @@
           <t>0.0044</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.0694039985537529</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2472,14 +2525,10 @@
           <t>INE092T16XM4</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.5598</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2497,17 +2546,22 @@
           <t>0.0044</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.07559800148010254</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2524,14 +2578,10 @@
           <t>INE092T16XN2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7.5599</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2549,17 +2599,22 @@
           <t>0.0044</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.07559899985790253</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2576,16 +2631,12 @@
           <t>INE028A16GG5</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>6.6363</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>1500</t>
@@ -2601,17 +2652,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.06636299937963486</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2628,14 +2684,10 @@
           <t>INE514E16CH3</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.9094</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2653,17 +2705,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.06909399479627609</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2680,16 +2737,12 @@
           <t>INE692A16HZ6</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>7.5053</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>1500</t>
@@ -2705,17 +2758,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.07505299896001816</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2732,14 +2790,10 @@
           <t>INE237A160X1</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.4801</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2757,17 +2811,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.0748009979724884</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2784,14 +2843,10 @@
           <t>INE476A16XV0</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6.9372</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2809,17 +2864,22 @@
           <t>0.0022</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.06937199831008911</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2836,14 +2896,10 @@
           <t>INE095A16W11</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.9631</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2861,17 +2917,22 @@
           <t>0.0022</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.06963099539279938</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2888,16 +2949,12 @@
           <t>INE692A16HP7</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6.951</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>1000</t>
@@ -2913,17 +2970,22 @@
           <t>0.0022</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.06950999796390533</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2940,14 +3002,10 @@
           <t>INE237A165W2</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6.8946</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2965,17 +3023,22 @@
           <t>0.0011</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.0689459964632988</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -2992,14 +3055,10 @@
           <t>INE476A16YS4</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6.8685</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3017,17 +3076,22 @@
           <t>0.0011</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.06868500262498856</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3044,14 +3108,10 @@
           <t>INE171A16LT6</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.9429</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3069,17 +3129,22 @@
           <t>0.0011</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.06942900270223618</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3096,14 +3161,10 @@
           <t>INE040A16EU6</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6.9495</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3121,17 +3182,22 @@
           <t>0.0011</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.06949499994516373</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3148,14 +3214,10 @@
           <t>INE160A16QX0</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.5298</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3173,17 +3235,22 @@
           <t>0.0011</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.0752979964017868</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3200,14 +3267,10 @@
           <t>INE261F14MZ4</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7.5301</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3225,17 +3288,22 @@
           <t>0.022</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.07530099898576736</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3252,14 +3320,10 @@
           <t>INE261F14MV3</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3277,17 +3341,22 @@
           <t>0.0177</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.07539999485015869</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3304,14 +3373,10 @@
           <t>INE929O14DB8</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3329,17 +3394,22 @@
           <t>0.0176</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.07599999755620956</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3356,14 +3426,10 @@
           <t>INE929O14CY2</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7.0204</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3381,17 +3447,22 @@
           <t>0.0134</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.070203997194767</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3408,14 +3479,10 @@
           <t>INE556F14KR8</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6.9828</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3433,17 +3500,22 @@
           <t>0.0123</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.06982799619436264</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3460,14 +3532,10 @@
           <t>INE700G14MM7</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7.3512</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3485,17 +3553,22 @@
           <t>0.0112</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.073512002825737</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3512,14 +3585,10 @@
           <t>INE477S14CW7</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7.8347</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3537,17 +3606,22 @@
           <t>0.011</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.07834699749946594</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3564,14 +3638,10 @@
           <t>INE763G14WR3</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7.8201</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3589,17 +3659,22 @@
           <t>0.011</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.07820099592208862</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3616,14 +3691,10 @@
           <t>INE700G14NG7</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7.7874</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3641,17 +3712,22 @@
           <t>0.011</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.07787399739027023</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3668,14 +3744,10 @@
           <t>INE115A14EV9</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6.9999</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3693,17 +3765,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.06999899446964264</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3720,14 +3797,10 @@
           <t>INE261F14MM2</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7.0001</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3745,17 +3818,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.07000099867582321</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3772,16 +3850,12 @@
           <t>INE081A14FH9</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>6.946</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>4000</t>
@@ -3797,17 +3871,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.06945999711751938</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3824,14 +3903,10 @@
           <t>INE700G14MQ8</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>7.3978</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3849,17 +3924,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.0739779993891716</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3876,14 +3956,10 @@
           <t>INE028E14PT6</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7.4001</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3901,17 +3977,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.0740009993314743</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3928,14 +4009,10 @@
           <t>INE763G14UC9</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7.3999</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3953,17 +4030,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.07399899512529373</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -3980,14 +4062,10 @@
           <t>INE556F14KW8</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6.9881</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4005,17 +4083,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.06988099962472916</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4032,14 +4115,10 @@
           <t>INE296A14XX3</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7.7751</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4057,17 +4136,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.07775100320577621</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4084,14 +4168,10 @@
           <t>INE763G14WX1</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4109,17 +4189,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.07779999822378159</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4136,14 +4221,10 @@
           <t>INE763G14XB5</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7.7801</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4161,17 +4242,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.07780099660158157</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4188,14 +4274,10 @@
           <t>INE121A14XE3</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7.925</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4213,17 +4295,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.07925000041723251</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4240,14 +4327,10 @@
           <t>INE824H14RK6</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7.9801</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4265,17 +4348,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.07980100065469742</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4292,14 +4380,10 @@
           <t>INE763G14XG4</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4317,17 +4401,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.07779999822378159</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4344,16 +4433,12 @@
           <t>INE870H14UQ0</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>7.5499</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>4000</t>
@@ -4369,17 +4454,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.07549899816513062</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4396,14 +4486,10 @@
           <t>INE976I14PS9</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7.7101</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4421,17 +4507,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.07710099965333939</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4448,14 +4539,10 @@
           <t>INE338I14IW9</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7.6714</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4473,17 +4560,22 @@
           <t>0.0078</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.07671400159597397</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4500,14 +4592,10 @@
           <t>INE763G14WF8</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7.4018</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4525,17 +4613,22 @@
           <t>0.0067</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.07401800155639648</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4552,14 +4645,10 @@
           <t>INE212K14AG2</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7.4099</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4577,17 +4666,22 @@
           <t>0.0067</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.07409899681806564</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4604,14 +4698,10 @@
           <t>INE891D14ZM3</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7.1006</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4629,17 +4719,22 @@
           <t>0.0067</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.07100599259138107</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4656,14 +4751,10 @@
           <t>INE261F14MS9</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7.5399</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4681,17 +4772,22 @@
           <t>0.0066</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.0753989964723587</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4708,14 +4804,10 @@
           <t>INE763G14WT9</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.8202</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4733,17 +4825,22 @@
           <t>0.0066</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.07820199429988861</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4760,14 +4857,10 @@
           <t>INE477S14CX5</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7.8002</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4785,17 +4878,22 @@
           <t>0.0066</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.07800199836492538</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4812,14 +4910,10 @@
           <t>INE296A14ZQ2</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7.735</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4837,17 +4931,22 @@
           <t>0.0066</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.07734999805688858</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4864,14 +4963,10 @@
           <t>INE976I14PR1</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7.7102</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4889,17 +4984,22 @@
           <t>0.0066</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.07710199803113937</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4916,14 +5016,10 @@
           <t>INE484J14VY8</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7.2908</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4941,17 +5037,22 @@
           <t>0.0065</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.07290799915790558</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -4968,14 +5069,10 @@
           <t>INE700G14NE2</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7.7875</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4993,17 +5090,22 @@
           <t>0.0055</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.07787499576807022</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5020,14 +5122,10 @@
           <t>INE865C14MQ8</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7.4993</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5045,17 +5143,22 @@
           <t>0.0045</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.07499299943447113</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5072,14 +5175,10 @@
           <t>INE484J14VZ5</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7.2908</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5097,17 +5196,22 @@
           <t>0.0045</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.07290799915790558</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5124,14 +5228,10 @@
           <t>INE212K14AF4</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7.4088</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5149,17 +5249,22 @@
           <t>0.0045</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.07408799976110458</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5176,14 +5281,10 @@
           <t>INE028E14PS8</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7.3989</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5201,17 +5302,22 @@
           <t>0.0045</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.07398899644613266</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5228,16 +5334,12 @@
           <t>INE121E14334</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>7.3206</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>2000</t>
@@ -5253,17 +5355,22 @@
           <t>0.0044</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.07320600003004074</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5280,14 +5387,10 @@
           <t>INE929O14DA0</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>7.5999</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5305,17 +5408,22 @@
           <t>0.0044</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.07599899917840958</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5332,14 +5440,10 @@
           <t>INE976I14PQ3</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>7.7099</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5357,17 +5461,22 @@
           <t>0.0044</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.07709899544715881</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5384,14 +5493,10 @@
           <t>INE941D14659</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7.5398</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5409,17 +5514,22 @@
           <t>0.0044</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.07539799809455872</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5436,14 +5546,10 @@
           <t>INE296A14ZR0</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7.7349</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5461,17 +5567,22 @@
           <t>0.0044</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.07734899967908859</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5488,14 +5599,10 @@
           <t>INE115A14EY3</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7.0255</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5513,17 +5620,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.07025499641895294</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5540,14 +5652,10 @@
           <t>INE233A14X98</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>7.6349</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5565,17 +5673,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.07634899765253067</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5592,14 +5705,10 @@
           <t>INE233A14X80</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.6351</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5617,17 +5726,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.07635099440813065</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5644,14 +5758,10 @@
           <t>INE233A14Y06</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>7.6351</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5669,17 +5779,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.07635099440813065</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5696,14 +5811,10 @@
           <t>INE700G14NI3</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.7877</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5721,17 +5832,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.07787699997425079</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5748,16 +5864,12 @@
           <t>INE813A14292</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>7.8399</t>
-        </is>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>1500</t>
@@ -5773,17 +5885,22 @@
           <t>0.0033</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.07839899510145187</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5800,14 +5917,10 @@
           <t>INE824H14QW3</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7.5346</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5825,17 +5938,22 @@
           <t>0.0022</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.07534599304199219</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5852,14 +5970,10 @@
           <t>INE028E14QH9</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>7.7948</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5877,17 +5991,22 @@
           <t>0.0022</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.07794799655675888</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5904,14 +6023,10 @@
           <t>INE763G14WY9</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7.7799</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5929,17 +6044,22 @@
           <t>0.0011</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.0777989998459816</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -5956,16 +6076,12 @@
           <t>IN002024X367</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>6.4009</t>
-        </is>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>63000000</t>
@@ -5981,17 +6097,22 @@
           <t>0.0281</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.06400899589061737</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6008,16 +6129,12 @@
           <t>IN002024X409</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>6.421</t>
-        </is>
-      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>60000000</t>
@@ -6033,17 +6150,22 @@
           <t>0.0266</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.06420999765396118</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6060,16 +6182,12 @@
           <t>IN002024X433</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>6.4793</t>
-        </is>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>47500000</t>
@@ -6085,17 +6203,22 @@
           <t>0.021</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.06479299813508987</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6112,16 +6235,12 @@
           <t>IN002024Y290</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>6.4793</t>
-        </is>
-      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>45500000</t>
@@ -6137,17 +6256,22 @@
           <t>0.0201</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.06479299813508987</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6164,16 +6288,12 @@
           <t>IN002024X417</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>6.4752</t>
-        </is>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>23500000</t>
@@ -6189,17 +6309,22 @@
           <t>0.0104</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.064751997590065</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6216,16 +6341,12 @@
           <t>IN002024Y308</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>6.4867</t>
-        </is>
-      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>1000000</t>
@@ -6241,17 +6362,22 @@
           <t>0.0004</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.06486699730157852</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6268,16 +6394,12 @@
           <t>IN002024X375</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>6.345</t>
-        </is>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>500000</t>
@@ -6293,17 +6415,22 @@
           <t>0.0002</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.06344999372959137</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6320,16 +6447,12 @@
           <t>IN002024Y282</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>6.4753</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>500000</t>
@@ -6345,17 +6468,22 @@
           <t>0.0002</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.06475299596786499</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6389,17 +6517,22 @@
           <t>0.002</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alternative Investment Funds AIF          </t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alternative Investment Funds  NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6416,16 +6549,12 @@
           <t>INE115A07PK2</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>7.645</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>1500</t>
@@ -6441,17 +6570,22 @@
           <t>0.0537</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.07644999772310257</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6468,16 +6602,12 @@
           <t>INE556F08JY8</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>750</t>
@@ -6493,17 +6623,22 @@
           <t>0.0272</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.07689999788999557</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6520,16 +6655,12 @@
           <t>INE556F08JZ5</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>750</t>
@@ -6545,17 +6676,22 @@
           <t>0.0269</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.07800000160932541</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6572,16 +6708,12 @@
           <t>INE121A07QQ5</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
         <is>
           <t>ICRA AA+</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>8.155</t>
-        </is>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>500</t>
@@ -6597,17 +6729,22 @@
           <t>0.0211</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.0815499946475029</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6624,16 +6761,12 @@
           <t>INE557F08FP2</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>5000</t>
@@ -6649,17 +6782,22 @@
           <t>0.0185</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.07509999722242355</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6676,16 +6814,12 @@
           <t>INE976I08391</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>7.5451</t>
-        </is>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>500</t>
@@ -6701,17 +6835,22 @@
           <t>0.0183</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.07545100152492523</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6728,16 +6867,12 @@
           <t>INE261F08DX0</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>5000</t>
@@ -6753,17 +6888,22 @@
           <t>0.018</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.0763000026345253</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="M122" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6780,16 +6920,12 @@
           <t>INE115A07PW7</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>7.765</t>
-        </is>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>500</t>
@@ -6805,17 +6941,22 @@
           <t>0.018</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.07764999568462372</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="M123" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6832,16 +6973,12 @@
           <t>INE660A07RO5</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>5000</t>
@@ -6857,17 +6994,22 @@
           <t>0.0179</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.0771000012755394</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="M124" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6884,16 +7026,12 @@
           <t>INE774D07UT1</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>2500</t>
@@ -6909,17 +7047,22 @@
           <t>0.0093</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.0794999971985817</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="M125" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6936,16 +7079,12 @@
           <t>INE134E08KP3</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>250</t>
@@ -6961,17 +7100,22 @@
           <t>0.0091</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.07619999349117279</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="M126" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -6988,16 +7132,12 @@
           <t>INE514E08FY8</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>7.5801</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>250</t>
@@ -7013,17 +7153,22 @@
           <t>0.0091</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.07580099999904633</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="M127" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7040,16 +7185,12 @@
           <t>INE115A07HT0</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>7.765</t>
-        </is>
-      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>250</t>
@@ -7065,17 +7206,22 @@
           <t>0.0091</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.07764999568462372</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="M128" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7092,16 +7238,12 @@
           <t>INE261F08DP6</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>7.7349</t>
-        </is>
-      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>250</t>
@@ -7117,17 +7259,22 @@
           <t>0.009</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.07734899967908859</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="M129" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7144,16 +7291,12 @@
           <t>INE414G07HT4</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
         <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>8.335</t>
-        </is>
-      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>2500</t>
@@ -7169,17 +7312,22 @@
           <t>0.009</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.08334999531507492</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="M130" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7196,16 +7344,12 @@
           <t>INE261F08DQ4</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>7.745</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>250</t>
@@ -7221,17 +7365,22 @@
           <t>0.009</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.07744999974966049</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="M131" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7248,16 +7397,12 @@
           <t>INE556F08KA6</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>250</t>
@@ -7273,17 +7418,22 @@
           <t>0.009</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.07800000160932541</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="M132" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7300,16 +7450,12 @@
           <t>INE01QP08016</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
         <is>
           <t>CRISIL AA</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>2500</t>
@@ -7325,17 +7471,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.08520000427961349</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="M133" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7352,16 +7503,12 @@
           <t>INE660A07RP2</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>2500</t>
@@ -7377,17 +7524,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.0771000012755394</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="M134" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7404,16 +7556,12 @@
           <t>INE261F08DR2</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>7.745</t>
-        </is>
-      </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>250</t>
@@ -7429,17 +7577,22 @@
           <t>0.0089</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.07744999974966049</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr">
+      <c r="M135" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7456,16 +7609,12 @@
           <t>INE115A07QD5</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>250</t>
@@ -7481,17 +7630,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.07760000228881836</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="M136" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7508,16 +7662,12 @@
           <t>INE040A08849</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>7.8499</t>
-        </is>
-      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>250</t>
@@ -7533,17 +7683,22 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.07849899679422379</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="M137" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7560,16 +7715,12 @@
           <t>INE414G07HI7</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
         <is>
           <t>CRISIL AA+</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>250</t>
@@ -7585,17 +7736,22 @@
           <t>0.0087</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.08350000530481339</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="M138" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7612,16 +7768,12 @@
           <t>INE896L07926</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
         <is>
           <t>CRISIL AA-</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>10.115</t>
-        </is>
-      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>2500</t>
@@ -7637,17 +7789,22 @@
           <t>0.0087</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.1011499986052513</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="M139" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7664,16 +7821,12 @@
           <t>INE134E07AI1</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>250000</t>
@@ -7689,17 +7842,22 @@
           <t>0.0085</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.07729999721050262</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="M140" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7716,16 +7874,12 @@
           <t>INE134E08LO4</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>7.695</t>
-        </is>
-      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>50</t>
@@ -7741,17 +7895,22 @@
           <t>0.0018</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges         SectorRating Percent</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.07694999873638153</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOND &amp; NCDs NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="M141" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7768,16 +7927,12 @@
           <t>IN0020150036</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>6.4401</t>
-        </is>
-      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>5000000</t>
@@ -7793,17 +7948,22 @@
           <t>0.0176</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState          </t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.06440100073814392</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="M142" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7820,16 +7980,12 @@
           <t>IN000425C016</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>6.4607</t>
-        </is>
-      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>4091600</t>
@@ -7845,17 +8001,22 @@
           <t>0.014</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState          </t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.06460700184106827</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="M143" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7872,16 +8033,12 @@
           <t>IN1520160202</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>6.804</t>
-        </is>
-      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>1000000</t>
@@ -7897,17 +8054,22 @@
           <t>0.0036</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Government Securities CentralState          </t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.06803999841213226</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government Securities  NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="M144" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7924,16 +8086,12 @@
           <t>INE16J715019</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
         <is>
           <t>IND AAA(SO)</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>45</t>
@@ -7949,17 +8107,22 @@
           <t>0.0117</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Securitised Debt          </t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.08369999378919601</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Securitised Debt NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr">
+      <c r="M145" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -7976,16 +8139,12 @@
           <t>INE028A16HA6</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>2000</t>
@@ -8001,17 +8160,22 @@
           <t>0.0338</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.07509999722242355</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
+      <c r="M146" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8028,16 +8192,12 @@
           <t>INE028A16GQ4</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>7.6001</t>
-        </is>
-      </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>2000</t>
@@ -8053,17 +8213,22 @@
           <t>0.0331</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.07600099593400955</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="M147" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8080,14 +8245,10 @@
           <t>INE556F16AX2</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>7.625</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8105,17 +8266,22 @@
           <t>0.0244</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.07625000178813934</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr">
+      <c r="M148" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8132,16 +8298,12 @@
           <t>INE028A16GR2</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
         <is>
           <t>IND A1+</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>7.4799</t>
-        </is>
-      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>1000</t>
@@ -8157,17 +8319,22 @@
           <t>0.017</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.07479899376630783</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
+      <c r="M149" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8184,14 +8351,10 @@
           <t>INE237A168X4</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7.5151</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8209,17 +8372,22 @@
           <t>0.0169</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.0751509964466095</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
+      <c r="M150" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8236,14 +8404,10 @@
           <t>INE261F16884</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>7.545</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8261,17 +8425,22 @@
           <t>0.0168</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.07544999569654465</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
+      <c r="M151" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8288,14 +8457,10 @@
           <t>INE238AD6876</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>7.6351</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8313,17 +8478,22 @@
           <t>0.0168</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.07635099440813065</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="M152" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8340,14 +8510,10 @@
           <t>INE171A16MA4</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>7.7299</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8365,17 +8531,22 @@
           <t>0.0167</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.07729899883270264</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="M153" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8392,14 +8563,10 @@
           <t>INE476A16YY2</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>7.6001</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8417,17 +8584,22 @@
           <t>0.0166</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.07600099593400955</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="M154" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8444,14 +8616,10 @@
           <t>INE238AD6900</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8469,17 +8637,22 @@
           <t>0.0166</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.07649999856948853</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr">
+      <c r="M155" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8496,14 +8669,10 @@
           <t>INE238AD6918</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>7.6413</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8521,17 +8690,22 @@
           <t>0.0166</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.07641299813985825</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr">
+      <c r="M156" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8548,14 +8722,10 @@
           <t>INE949L16CW5</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8573,17 +8743,22 @@
           <t>0.0165</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.07919999957084656</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr">
+      <c r="M157" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8600,14 +8775,10 @@
           <t>INE092T16XP7</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>7.6798</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8625,17 +8796,22 @@
           <t>0.0164</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.07679799944162369</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr">
+      <c r="M158" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8652,14 +8828,10 @@
           <t>INE092T16XT9</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>7.6798</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8677,17 +8849,22 @@
           <t>0.0163</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.07679799944162369</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="M159" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8704,14 +8881,10 @@
           <t>INE160A16QL5</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8729,17 +8902,22 @@
           <t>0.0163</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.07599999755620956</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr">
+      <c r="M160" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8756,14 +8934,10 @@
           <t>INE095A16Y76</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>7.715</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8781,17 +8955,22 @@
           <t>0.0163</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.07715000212192535</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="M161" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8808,14 +8987,10 @@
           <t>INE949L16DF8</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8833,17 +9008,22 @@
           <t>0.0162</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.07909999787807465</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="M162" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8860,14 +9040,10 @@
           <t>INE562A16NR6</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7.5102</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8885,17 +9061,22 @@
           <t>0.0084</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.07510200142860413</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr">
+      <c r="M163" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8912,14 +9093,10 @@
           <t>INE556F16AS2</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>7.5503</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8937,17 +9114,22 @@
           <t>0.0084</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.07550299912691116</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="M164" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -8964,14 +9146,10 @@
           <t>INE238AD6868</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>7.6351</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8989,17 +9167,22 @@
           <t>0.0084</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.07635099440813065</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="M165" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9016,14 +9199,10 @@
           <t>INE476A16ZA9</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9041,17 +9220,22 @@
           <t>0.0083</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.07599999755620956</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="M166" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9068,14 +9252,10 @@
           <t>INE238AD6892</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>7.6351</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9093,17 +9273,22 @@
           <t>0.0083</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.07635099440813065</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="M167" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9120,14 +9305,10 @@
           <t>INE237A165Y8</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9145,17 +9326,22 @@
           <t>0.0082</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.07569999992847443</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="M168" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9172,14 +9358,10 @@
           <t>INE160A16QM3</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>7.6001</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9197,17 +9379,22 @@
           <t>0.0081</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.07600099593400955</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="M169" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9224,14 +9411,10 @@
           <t>INE040A16GA3</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>7.6299</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9249,17 +9432,22 @@
           <t>0.0081</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Certificate of Deposit          </t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.07629899680614471</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Certificate of Deposit NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr">
+      <c r="M170" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9276,14 +9464,10 @@
           <t>INE338I14HF6</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>7.6945</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9301,17 +9485,22 @@
           <t>0.0258</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.07694499939680099</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr">
+      <c r="M171" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9328,14 +9517,10 @@
           <t>INE403D14544</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>8.285</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9353,17 +9538,22 @@
           <t>0.0229</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.08284999430179596</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr">
+      <c r="M172" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9380,14 +9570,10 @@
           <t>INE514E14SL6</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>7.5099</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9405,17 +9591,22 @@
           <t>0.0169</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.07509899884462357</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr">
+      <c r="M173" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9432,14 +9623,10 @@
           <t>INE957N14IY2</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9457,17 +9644,22 @@
           <t>0.0163</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.08169999718666077</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr">
+      <c r="M174" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9484,14 +9676,10 @@
           <t>INE531F14EY0</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>8.4654</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9509,17 +9697,22 @@
           <t>0.0086</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.08465399593114853</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr">
+      <c r="M175" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9536,14 +9729,10 @@
           <t>INE007N14EA5</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>8.1551</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9561,17 +9750,22 @@
           <t>0.0084</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Listed  awaiting listing on the stock exchanges          </t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.08155100047588348</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commercial Papers NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr">
+      <c r="M176" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9588,16 +9782,12 @@
           <t>IN002024X409</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>6.421</t>
-        </is>
-      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>10000000</t>
@@ -9613,17 +9803,22 @@
           <t>0.0342</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.06420999765396118</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="M177" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9640,16 +9835,12 @@
           <t>IN002024Y290</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>6.4793</t>
-        </is>
-      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>7500000</t>
@@ -9665,17 +9856,22 @@
           <t>0.0256</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.06479299813508987</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr">
+      <c r="M178" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9692,16 +9888,12 @@
           <t>IN002024Y423</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>6.4541</t>
-        </is>
-      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>6500000</t>
@@ -9717,17 +9909,22 @@
           <t>0.0218</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.06454099714756012</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
+      <c r="M179" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9744,16 +9941,12 @@
           <t>IN002024Y357</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>2500000</t>
@@ -9769,17 +9962,22 @@
           <t>0.0085</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Treasury Bill          </t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.0640999972820282</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treasury Bill NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr">
+      <c r="M180" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9813,17 +10011,22 @@
           <t>0.0028</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alternative Investment Funds AIF          </t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alternative Investment Funds  NAN nan nan nan nan nan nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr">
+      <c r="M181" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9840,12 +10043,12 @@
           <t>INE975G08140</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>0</t>
@@ -9861,19 +10064,24 @@
           <t>413.50243</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Security Name ISIN value of the security considered under net receivables ie value recognized in NAV in absolute terms and as  to NAV
-Rsin lakhs  total amount including principal and interest that is due to the scheme on that investment
-Rsin lakhs Interim Distribution received Rsin lakhs Date of passing Interim Distribution recognized in NAV    </t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Security Name ISIN value of the security considered under net receivables 
+ nan total amount  that is due to the scheme on that investment
+ Interim Distribution received  Date of passing Interim Distribution recognized in NAV nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr">
+      <c r="M182" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
@@ -9890,12 +10098,12 @@
           <t>INE975G08140</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
           <t>0</t>
@@ -9907,19 +10115,24 @@
           <t>209.28715</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Security Name ISIN value of the security considered under net receivables ie value recognized in NAV in absolute terms and as  to NAV
-Rsin lakhs  total amount including principal and interest that is due to the scheme on that investment
-Rsin lakhs Interim Distribution received Rsin lakhs Date of passing Interim Distribution recognized in NAV    </t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Security Name ISIN value of the security considered under net receivables 
+ nan total amount  that is due to the scheme on that investment
+ Interim Distribution received  Date of passing Interim Distribution recognized in NAV nan 00 nan nan</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
+      <c r="M183" t="inlineStr">
         <is>
           <t>DSP Mutual Fund</t>
         </is>
